--- a/my-python-code/DataProcessForDESA/Demo/TeamTemplate.xlsx
+++ b/my-python-code/DataProcessForDESA/Demo/TeamTemplate.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rp701\IdeaProjects\my-python-code\DataProcessForDESA\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A777F26B-DD4F-4912-A9A4-72ABF3DE8CBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AAC117-E3DB-4FD9-99CA-4EE2D078DC06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Special Logic" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template!$A$1:$E$372</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template!$A$1:$E$370</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="321">
   <si>
     <t>Domestic</t>
   </si>
@@ -841,9 +841,6 @@
   </si>
   <si>
     <t>F4.5NS6B220</t>
-  </si>
-  <si>
-    <t>F4.5S6210</t>
   </si>
   <si>
     <t>ISB4.5E6C180</t>
@@ -926,10 +923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、根据TradeType、ProjectType、Item Description  确定Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TradeType/Inventory Org.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -962,10 +955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ISF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -978,14 +967,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Configuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、Item Description 包含 QSB7 隆工需要根据“Item Number” 后缀有GCIC的属于GCIC，否则属于DCEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Taiwan ISF Truck</t>
   </si>
   <si>
@@ -993,11 +974,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4、隆工的不用维护</t>
+    <t>F4.5S6210</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2、台湾的特殊处理 根据Customer Code 包含台湾的确定,标记黄色</t>
+    <t>Construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISF3.8s5154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据TradeType、ProjectType、Item Description  确定Team  (CX=Construction \ BX=Truck \BU=Bus )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前维护日期类型 （“Invoice_Date”，“ Invoice_GL_Date，“ShipDate”，“ InvoiceDueDate”定义为“YYYY-M-D”）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">台湾的特殊处理 根据Customer Code 包含台湾的确定 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾按照Export维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">隆工的不用维护 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Description 包含 QSB6.7、QSB7 为隆工需要根据“Item Number” 后缀有GCIC的Team属于GCIC，否则属于DCEC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,7 +1055,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1053,6 +1074,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1066,11 +1111,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1351,11 +1401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E373"/>
+  <dimension ref="A1:E371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B373" sqref="B373"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1373,36 +1423,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>309</v>
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1413,13 +1463,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1492,7 +1542,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1518,10 +1568,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1803,7 +1853,7 @@
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D26" t="s">
@@ -1821,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -1838,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -1855,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -1872,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -1889,13 +1939,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1906,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
         <v>30</v>
@@ -1940,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
         <v>30</v>
@@ -1957,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
         <v>30</v>
@@ -1974,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
         <v>30</v>
@@ -2008,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
@@ -2042,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
         <v>30</v>
@@ -2059,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
         <v>30</v>
@@ -2076,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
         <v>30</v>
@@ -2093,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
         <v>30</v>
@@ -2127,13 +2177,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2144,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -2161,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -2178,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -2195,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -2212,13 +2262,13 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2229,13 +2279,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2246,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
@@ -2260,16 +2310,16 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2297,7 +2347,7 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
         <v>53</v>
@@ -2324,19 +2374,19 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="A57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2348,13 +2398,13 @@
         <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2365,7 +2415,7 @@
         <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D59" t="s">
         <v>58</v>
@@ -2382,7 +2432,7 @@
         <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
         <v>58</v>
@@ -2399,7 +2449,7 @@
         <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
         <v>58</v>
@@ -2416,7 +2466,7 @@
         <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
         <v>58</v>
@@ -2433,13 +2483,13 @@
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2450,7 +2500,7 @@
         <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D64" t="s">
         <v>65</v>
@@ -2484,7 +2534,7 @@
         <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D66" t="s">
         <v>65</v>
@@ -2501,7 +2551,7 @@
         <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s">
         <v>65</v>
@@ -2518,7 +2568,7 @@
         <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
         <v>65</v>
@@ -2535,7 +2585,7 @@
         <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
         <v>65</v>
@@ -2552,7 +2602,7 @@
         <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
         <v>65</v>
@@ -2569,7 +2619,7 @@
         <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D71" t="s">
         <v>65</v>
@@ -2586,7 +2636,7 @@
         <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D72" t="s">
         <v>65</v>
@@ -2603,13 +2653,13 @@
         <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2620,13 +2670,13 @@
         <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E74" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2654,7 +2704,7 @@
         <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D76" t="s">
         <v>58</v>
@@ -2671,7 +2721,7 @@
         <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D77" t="s">
         <v>58</v>
@@ -2688,7 +2738,7 @@
         <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D78" t="s">
         <v>58</v>
@@ -2705,7 +2755,7 @@
         <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
         <v>58</v>
@@ -2722,13 +2772,13 @@
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2756,7 +2806,7 @@
         <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D82" t="s">
         <v>53</v>
@@ -2773,7 +2823,7 @@
         <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D83" t="s">
         <v>53</v>
@@ -2790,7 +2840,7 @@
         <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D84" t="s">
         <v>53</v>
@@ -2807,13 +2857,13 @@
         <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E85" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2824,7 +2874,7 @@
         <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D86" t="s">
         <v>65</v>
@@ -2841,7 +2891,7 @@
         <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D87" t="s">
         <v>65</v>
@@ -2858,7 +2908,7 @@
         <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D88" t="s">
         <v>65</v>
@@ -2875,7 +2925,7 @@
         <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D89" t="s">
         <v>65</v>
@@ -2892,7 +2942,7 @@
         <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D90" t="s">
         <v>65</v>
@@ -2909,7 +2959,7 @@
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D91" t="s">
         <v>65</v>
@@ -2926,7 +2976,7 @@
         <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D92" t="s">
         <v>65</v>
@@ -2943,7 +2993,7 @@
         <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D93" t="s">
         <v>65</v>
@@ -2960,7 +3010,7 @@
         <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D94" t="s">
         <v>65</v>
@@ -2977,7 +3027,7 @@
         <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D95" t="s">
         <v>65</v>
@@ -3011,7 +3061,7 @@
         <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
         <v>65</v>
@@ -3028,7 +3078,7 @@
         <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
         <v>65</v>
@@ -3062,7 +3112,7 @@
         <v>51</v>
       </c>
       <c r="C100" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D100" t="s">
         <v>65</v>
@@ -3096,7 +3146,7 @@
         <v>51</v>
       </c>
       <c r="C102" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D102" t="s">
         <v>65</v>
@@ -3113,7 +3163,7 @@
         <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D103" t="s">
         <v>65</v>
@@ -3147,7 +3197,7 @@
         <v>51</v>
       </c>
       <c r="C105" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D105" t="s">
         <v>65</v>
@@ -3181,7 +3231,7 @@
         <v>51</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D107" t="s">
         <v>65</v>
@@ -3198,7 +3248,7 @@
         <v>51</v>
       </c>
       <c r="C108" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
         <v>65</v>
@@ -3215,7 +3265,7 @@
         <v>51</v>
       </c>
       <c r="C109" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D109" t="s">
         <v>65</v>
@@ -3249,7 +3299,7 @@
         <v>51</v>
       </c>
       <c r="C111" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D111" t="s">
         <v>65</v>
@@ -3266,7 +3316,7 @@
         <v>51</v>
       </c>
       <c r="C112" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D112" t="s">
         <v>65</v>
@@ -3283,7 +3333,7 @@
         <v>51</v>
       </c>
       <c r="C113" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D113" t="s">
         <v>65</v>
@@ -3300,7 +3350,7 @@
         <v>51</v>
       </c>
       <c r="C114" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D114" t="s">
         <v>65</v>
@@ -3334,7 +3384,7 @@
         <v>51</v>
       </c>
       <c r="C116" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D116" t="s">
         <v>65</v>
@@ -3351,7 +3401,7 @@
         <v>51</v>
       </c>
       <c r="C117" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D117" t="s">
         <v>65</v>
@@ -3385,7 +3435,7 @@
         <v>51</v>
       </c>
       <c r="C119" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D119" t="s">
         <v>65</v>
@@ -3419,7 +3469,7 @@
         <v>51</v>
       </c>
       <c r="C121" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D121" t="s">
         <v>65</v>
@@ -3436,7 +3486,7 @@
         <v>51</v>
       </c>
       <c r="C122" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D122" t="s">
         <v>65</v>
@@ -3470,7 +3520,7 @@
         <v>51</v>
       </c>
       <c r="C124" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D124" t="s">
         <v>65</v>
@@ -3504,7 +3554,7 @@
         <v>51</v>
       </c>
       <c r="C126" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D126" t="s">
         <v>65</v>
@@ -3521,7 +3571,7 @@
         <v>51</v>
       </c>
       <c r="C127" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D127" t="s">
         <v>65</v>
@@ -3538,7 +3588,7 @@
         <v>51</v>
       </c>
       <c r="C128" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D128" t="s">
         <v>65</v>
@@ -3555,13 +3605,13 @@
         <v>51</v>
       </c>
       <c r="C129" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D129" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="E129" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3572,7 +3622,7 @@
         <v>51</v>
       </c>
       <c r="C130" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D130" t="s">
         <v>119</v>
@@ -3589,7 +3639,7 @@
         <v>51</v>
       </c>
       <c r="C131" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D131" t="s">
         <v>119</v>
@@ -3606,7 +3656,7 @@
         <v>51</v>
       </c>
       <c r="C132" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D132" t="s">
         <v>119</v>
@@ -3623,13 +3673,13 @@
         <v>51</v>
       </c>
       <c r="C133" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D133" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E133" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3657,7 +3707,7 @@
         <v>51</v>
       </c>
       <c r="C135" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D135" t="s">
         <v>58</v>
@@ -3674,7 +3724,7 @@
         <v>51</v>
       </c>
       <c r="C136" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D136" t="s">
         <v>58</v>
@@ -3691,7 +3741,7 @@
         <v>51</v>
       </c>
       <c r="C137" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D137" t="s">
         <v>58</v>
@@ -3708,13 +3758,13 @@
         <v>51</v>
       </c>
       <c r="C138" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D138" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E138" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3725,7 +3775,7 @@
         <v>51</v>
       </c>
       <c r="C139" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D139" t="s">
         <v>74</v>
@@ -3759,7 +3809,7 @@
         <v>51</v>
       </c>
       <c r="C141" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D141" t="s">
         <v>74</v>
@@ -3776,7 +3826,7 @@
         <v>51</v>
       </c>
       <c r="C142" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D142" t="s">
         <v>74</v>
@@ -3793,13 +3843,13 @@
         <v>51</v>
       </c>
       <c r="C143" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D143" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E143" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3810,13 +3860,13 @@
         <v>51</v>
       </c>
       <c r="C144" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D144" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="E144" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3827,7 +3877,7 @@
         <v>51</v>
       </c>
       <c r="C145" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D145" t="s">
         <v>119</v>
@@ -3844,7 +3894,7 @@
         <v>51</v>
       </c>
       <c r="C146" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D146" t="s">
         <v>119</v>
@@ -3861,7 +3911,7 @@
         <v>51</v>
       </c>
       <c r="C147" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D147" t="s">
         <v>119</v>
@@ -3875,16 +3925,16 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C148" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D148" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="E148" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3895,13 +3945,13 @@
         <v>136</v>
       </c>
       <c r="C149" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D149" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3912,7 +3962,7 @@
         <v>136</v>
       </c>
       <c r="C150" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D150" t="s">
         <v>5</v>
@@ -3929,7 +3979,7 @@
         <v>136</v>
       </c>
       <c r="C151" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D151" t="s">
         <v>5</v>
@@ -3946,7 +3996,7 @@
         <v>136</v>
       </c>
       <c r="C152" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D152" t="s">
         <v>5</v>
@@ -3963,7 +4013,7 @@
         <v>136</v>
       </c>
       <c r="C153" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D153" t="s">
         <v>5</v>
@@ -3980,7 +4030,7 @@
         <v>136</v>
       </c>
       <c r="C154" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D154" t="s">
         <v>5</v>
@@ -3997,7 +4047,7 @@
         <v>136</v>
       </c>
       <c r="C155" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D155" t="s">
         <v>5</v>
@@ -4031,7 +4081,7 @@
         <v>136</v>
       </c>
       <c r="C157" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="D157" t="s">
         <v>5</v>
@@ -4048,7 +4098,7 @@
         <v>136</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D158" t="s">
         <v>5</v>
@@ -4065,7 +4115,7 @@
         <v>136</v>
       </c>
       <c r="C159" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="D159" t="s">
         <v>5</v>
@@ -4082,7 +4132,7 @@
         <v>136</v>
       </c>
       <c r="C160" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D160" t="s">
         <v>5</v>
@@ -4099,7 +4149,7 @@
         <v>136</v>
       </c>
       <c r="C161" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="D161" t="s">
         <v>5</v>
@@ -4116,7 +4166,7 @@
         <v>136</v>
       </c>
       <c r="C162" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="D162" t="s">
         <v>5</v>
@@ -4133,7 +4183,7 @@
         <v>136</v>
       </c>
       <c r="C163" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D163" t="s">
         <v>5</v>
@@ -4167,7 +4217,7 @@
         <v>136</v>
       </c>
       <c r="C165" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D165" t="s">
         <v>5</v>
@@ -4184,7 +4234,7 @@
         <v>136</v>
       </c>
       <c r="C166" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D166" t="s">
         <v>5</v>
@@ -4201,7 +4251,7 @@
         <v>136</v>
       </c>
       <c r="C167" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D167" t="s">
         <v>5</v>
@@ -4235,7 +4285,7 @@
         <v>136</v>
       </c>
       <c r="C169" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D169" t="s">
         <v>5</v>
@@ -4269,7 +4319,7 @@
         <v>136</v>
       </c>
       <c r="C171" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D171" t="s">
         <v>5</v>
@@ -4286,7 +4336,7 @@
         <v>136</v>
       </c>
       <c r="C172" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D172" t="s">
         <v>5</v>
@@ -4303,7 +4353,7 @@
         <v>136</v>
       </c>
       <c r="C173" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="D173" t="s">
         <v>5</v>
@@ -4320,7 +4370,7 @@
         <v>136</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D174" t="s">
         <v>5</v>
@@ -4337,7 +4387,7 @@
         <v>136</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="D175" t="s">
         <v>5</v>
@@ -4354,7 +4404,7 @@
         <v>136</v>
       </c>
       <c r="C176" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D176" t="s">
         <v>5</v>
@@ -4388,7 +4438,7 @@
         <v>136</v>
       </c>
       <c r="C178" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="D178" t="s">
         <v>5</v>
@@ -4422,7 +4472,7 @@
         <v>136</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="D180" t="s">
         <v>5</v>
@@ -4456,7 +4506,7 @@
         <v>136</v>
       </c>
       <c r="C182" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D182" t="s">
         <v>5</v>
@@ -4473,7 +4523,7 @@
         <v>136</v>
       </c>
       <c r="C183" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="D183" t="s">
         <v>5</v>
@@ -4507,7 +4557,7 @@
         <v>136</v>
       </c>
       <c r="C185" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="D185" t="s">
         <v>5</v>
@@ -4524,7 +4574,7 @@
         <v>136</v>
       </c>
       <c r="C186" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D186" t="s">
         <v>5</v>
@@ -4541,7 +4591,7 @@
         <v>136</v>
       </c>
       <c r="C187" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D187" t="s">
         <v>5</v>
@@ -4558,7 +4608,7 @@
         <v>136</v>
       </c>
       <c r="C188" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
         <v>5</v>
@@ -4592,7 +4642,7 @@
         <v>136</v>
       </c>
       <c r="C190" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="D190" t="s">
         <v>5</v>
@@ -4626,7 +4676,7 @@
         <v>136</v>
       </c>
       <c r="C192" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="D192" t="s">
         <v>5</v>
@@ -4643,7 +4693,7 @@
         <v>136</v>
       </c>
       <c r="C193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D193" t="s">
         <v>5</v>
@@ -4653,19 +4703,19 @@
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" t="s">
-        <v>0</v>
-      </c>
-      <c r="B194" t="s">
-        <v>136</v>
-      </c>
-      <c r="C194" t="s">
-        <v>23</v>
-      </c>
-      <c r="D194" t="s">
-        <v>5</v>
-      </c>
-      <c r="E194" t="s">
+      <c r="A194" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4676,8 +4726,8 @@
       <c r="B195" t="s">
         <v>136</v>
       </c>
-      <c r="C195" t="s">
-        <v>25</v>
+      <c r="C195" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="D195" t="s">
         <v>5</v>
@@ -4694,7 +4744,7 @@
         <v>136</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="D196" t="s">
         <v>5</v>
@@ -4711,7 +4761,7 @@
         <v>136</v>
       </c>
       <c r="C197" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D197" t="s">
         <v>5</v>
@@ -4728,7 +4778,7 @@
         <v>136</v>
       </c>
       <c r="C198" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D198" t="s">
         <v>5</v>
@@ -4745,7 +4795,7 @@
         <v>136</v>
       </c>
       <c r="C199" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="D199" t="s">
         <v>5</v>
@@ -4762,13 +4812,13 @@
         <v>136</v>
       </c>
       <c r="C200" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D200" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E200" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4779,13 +4829,13 @@
         <v>136</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D201" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4796,7 +4846,7 @@
         <v>136</v>
       </c>
       <c r="C202" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D202" t="s">
         <v>48</v>
@@ -4813,13 +4863,13 @@
         <v>136</v>
       </c>
       <c r="C203" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D203" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E203" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4830,13 +4880,13 @@
         <v>136</v>
       </c>
       <c r="C204" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D204" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4847,7 +4897,7 @@
         <v>136</v>
       </c>
       <c r="C205" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D205" t="s">
         <v>48</v>
@@ -4864,13 +4914,13 @@
         <v>136</v>
       </c>
       <c r="C206" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D206" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E206" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4881,7 +4931,7 @@
         <v>136</v>
       </c>
       <c r="C207" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D207" t="s">
         <v>48</v>
@@ -4898,7 +4948,7 @@
         <v>136</v>
       </c>
       <c r="C208" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D208" t="s">
         <v>48</v>
@@ -4915,7 +4965,7 @@
         <v>136</v>
       </c>
       <c r="C209" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D209" t="s">
         <v>48</v>
@@ -4932,7 +4982,7 @@
         <v>136</v>
       </c>
       <c r="C210" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D210" t="s">
         <v>48</v>
@@ -4949,7 +4999,7 @@
         <v>136</v>
       </c>
       <c r="C211" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D211" t="s">
         <v>48</v>
@@ -4966,7 +5016,7 @@
         <v>136</v>
       </c>
       <c r="C212" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D212" t="s">
         <v>48</v>
@@ -4983,7 +5033,7 @@
         <v>136</v>
       </c>
       <c r="C213" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D213" t="s">
         <v>48</v>
@@ -5000,7 +5050,7 @@
         <v>136</v>
       </c>
       <c r="C214" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D214" t="s">
         <v>48</v>
@@ -5017,7 +5067,7 @@
         <v>136</v>
       </c>
       <c r="C215" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D215" t="s">
         <v>48</v>
@@ -5034,7 +5084,7 @@
         <v>136</v>
       </c>
       <c r="C216" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D216" t="s">
         <v>48</v>
@@ -5051,7 +5101,7 @@
         <v>136</v>
       </c>
       <c r="C217" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D217" t="s">
         <v>48</v>
@@ -5068,7 +5118,7 @@
         <v>136</v>
       </c>
       <c r="C218" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D218" t="s">
         <v>48</v>
@@ -5085,13 +5135,13 @@
         <v>136</v>
       </c>
       <c r="C219" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D219" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E219" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5102,13 +5152,13 @@
         <v>136</v>
       </c>
       <c r="C220" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D220" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E220" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5119,13 +5169,13 @@
         <v>136</v>
       </c>
       <c r="C221" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D221" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E221" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5136,13 +5186,13 @@
         <v>136</v>
       </c>
       <c r="C222" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D222" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E222" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5153,7 +5203,7 @@
         <v>136</v>
       </c>
       <c r="C223" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="D223" t="s">
         <v>48</v>
@@ -5170,7 +5220,7 @@
         <v>136</v>
       </c>
       <c r="C224" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D224" t="s">
         <v>48</v>
@@ -5187,7 +5237,7 @@
         <v>136</v>
       </c>
       <c r="C225" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="D225" t="s">
         <v>48</v>
@@ -5198,36 +5248,33 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="B226" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>191</v>
-      </c>
-      <c r="D226" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="E226" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="B227" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D227" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5238,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E228" t="s">
         <v>195</v>
@@ -5252,13 +5299,10 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>196</v>
-      </c>
-      <c r="D229" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="E229" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5269,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E230" t="s">
         <v>195</v>
@@ -5283,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E231" t="s">
         <v>195</v>
@@ -5297,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E232" t="s">
         <v>195</v>
@@ -5311,10 +5355,13 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="D233" t="s">
+        <v>3</v>
       </c>
       <c r="E233" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5325,10 +5372,13 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="D234" t="s">
+        <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5336,16 +5386,16 @@
         <v>193</v>
       </c>
       <c r="B235" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C235" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D235" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E235" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5353,16 +5403,16 @@
         <v>193</v>
       </c>
       <c r="B236" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C236" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D236" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E236" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5373,7 +5423,7 @@
         <v>51</v>
       </c>
       <c r="C237" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D237" t="s">
         <v>53</v>
@@ -5390,7 +5440,7 @@
         <v>51</v>
       </c>
       <c r="C238" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D238" t="s">
         <v>53</v>
@@ -5407,7 +5457,7 @@
         <v>51</v>
       </c>
       <c r="C239" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D239" t="s">
         <v>53</v>
@@ -5424,7 +5474,7 @@
         <v>51</v>
       </c>
       <c r="C240" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D240" t="s">
         <v>53</v>
@@ -5441,7 +5491,7 @@
         <v>51</v>
       </c>
       <c r="C241" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D241" t="s">
         <v>53</v>
@@ -5458,7 +5508,7 @@
         <v>51</v>
       </c>
       <c r="C242" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D242" t="s">
         <v>53</v>
@@ -5475,7 +5525,7 @@
         <v>51</v>
       </c>
       <c r="C243" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D243" t="s">
         <v>53</v>
@@ -5492,7 +5542,7 @@
         <v>51</v>
       </c>
       <c r="C244" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D244" t="s">
         <v>53</v>
@@ -5509,7 +5559,7 @@
         <v>51</v>
       </c>
       <c r="C245" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D245" t="s">
         <v>53</v>
@@ -5526,7 +5576,7 @@
         <v>51</v>
       </c>
       <c r="C246" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D246" t="s">
         <v>53</v>
@@ -5543,7 +5593,7 @@
         <v>51</v>
       </c>
       <c r="C247" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D247" t="s">
         <v>53</v>
@@ -5560,7 +5610,7 @@
         <v>51</v>
       </c>
       <c r="C248" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D248" t="s">
         <v>53</v>
@@ -5577,7 +5627,7 @@
         <v>51</v>
       </c>
       <c r="C249" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D249" t="s">
         <v>53</v>
@@ -5594,7 +5644,7 @@
         <v>51</v>
       </c>
       <c r="C250" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D250" t="s">
         <v>53</v>
@@ -5611,7 +5661,7 @@
         <v>51</v>
       </c>
       <c r="C251" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D251" t="s">
         <v>53</v>
@@ -5628,7 +5678,7 @@
         <v>51</v>
       </c>
       <c r="C252" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D252" t="s">
         <v>53</v>
@@ -5645,7 +5695,7 @@
         <v>51</v>
       </c>
       <c r="C253" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D253" t="s">
         <v>53</v>
@@ -5662,7 +5712,7 @@
         <v>51</v>
       </c>
       <c r="C254" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D254" t="s">
         <v>53</v>
@@ -5679,7 +5729,7 @@
         <v>51</v>
       </c>
       <c r="C255" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D255" t="s">
         <v>53</v>
@@ -5696,7 +5746,7 @@
         <v>51</v>
       </c>
       <c r="C256" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D256" t="s">
         <v>53</v>
@@ -5713,7 +5763,7 @@
         <v>51</v>
       </c>
       <c r="C257" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D257" t="s">
         <v>53</v>
@@ -5730,7 +5780,7 @@
         <v>51</v>
       </c>
       <c r="C258" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D258" t="s">
         <v>53</v>
@@ -5747,7 +5797,7 @@
         <v>51</v>
       </c>
       <c r="C259" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D259" t="s">
         <v>53</v>
@@ -5764,7 +5814,7 @@
         <v>51</v>
       </c>
       <c r="C260" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D260" t="s">
         <v>53</v>
@@ -5781,7 +5831,7 @@
         <v>51</v>
       </c>
       <c r="C261" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D261" t="s">
         <v>53</v>
@@ -5798,7 +5848,7 @@
         <v>51</v>
       </c>
       <c r="C262" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D262" t="s">
         <v>53</v>
@@ -5815,7 +5865,7 @@
         <v>51</v>
       </c>
       <c r="C263" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D263" t="s">
         <v>53</v>
@@ -5832,7 +5882,7 @@
         <v>51</v>
       </c>
       <c r="C264" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D264" t="s">
         <v>53</v>
@@ -5849,13 +5899,13 @@
         <v>51</v>
       </c>
       <c r="C265" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D265" t="s">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="E265" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5866,7 +5916,7 @@
         <v>51</v>
       </c>
       <c r="C266" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D266" t="s">
         <v>53</v>
@@ -5883,13 +5933,13 @@
         <v>51</v>
       </c>
       <c r="C267" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D267" t="s">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c r="E267" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5900,7 +5950,7 @@
         <v>51</v>
       </c>
       <c r="C268" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D268" t="s">
         <v>53</v>
@@ -5917,7 +5967,7 @@
         <v>51</v>
       </c>
       <c r="C269" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D269" t="s">
         <v>53</v>
@@ -5934,7 +5984,7 @@
         <v>51</v>
       </c>
       <c r="C270" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D270" t="s">
         <v>53</v>
@@ -5951,7 +6001,7 @@
         <v>51</v>
       </c>
       <c r="C271" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D271" t="s">
         <v>53</v>
@@ -5968,7 +6018,7 @@
         <v>51</v>
       </c>
       <c r="C272" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D272" t="s">
         <v>53</v>
@@ -5985,7 +6035,7 @@
         <v>51</v>
       </c>
       <c r="C273" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D273" t="s">
         <v>53</v>
@@ -6002,7 +6052,7 @@
         <v>51</v>
       </c>
       <c r="C274" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D274" t="s">
         <v>53</v>
@@ -6019,7 +6069,7 @@
         <v>51</v>
       </c>
       <c r="C275" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D275" t="s">
         <v>53</v>
@@ -6036,13 +6086,13 @@
         <v>51</v>
       </c>
       <c r="C276" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="D276" t="s">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="E276" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6053,13 +6103,13 @@
         <v>51</v>
       </c>
       <c r="C277" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="D277" t="s">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="E277" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6070,7 +6120,7 @@
         <v>51</v>
       </c>
       <c r="C278" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D278" t="s">
         <v>231</v>
@@ -6087,7 +6137,7 @@
         <v>51</v>
       </c>
       <c r="C279" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D279" t="s">
         <v>231</v>
@@ -6104,7 +6154,7 @@
         <v>51</v>
       </c>
       <c r="C280" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="D280" t="s">
         <v>231</v>
@@ -6121,7 +6171,7 @@
         <v>51</v>
       </c>
       <c r="C281" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D281" t="s">
         <v>231</v>
@@ -6138,7 +6188,7 @@
         <v>51</v>
       </c>
       <c r="C282" t="s">
-        <v>242</v>
+        <v>100</v>
       </c>
       <c r="D282" t="s">
         <v>231</v>
@@ -6155,7 +6205,7 @@
         <v>51</v>
       </c>
       <c r="C283" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="D283" t="s">
         <v>231</v>
@@ -6172,7 +6222,7 @@
         <v>51</v>
       </c>
       <c r="C284" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="D284" t="s">
         <v>231</v>
@@ -6189,7 +6239,7 @@
         <v>51</v>
       </c>
       <c r="C285" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D285" t="s">
         <v>231</v>
@@ -6206,7 +6256,7 @@
         <v>51</v>
       </c>
       <c r="C286" t="s">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c r="D286" t="s">
         <v>231</v>
@@ -6223,7 +6273,7 @@
         <v>51</v>
       </c>
       <c r="C287" t="s">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c r="D287" t="s">
         <v>231</v>
@@ -6240,7 +6290,7 @@
         <v>51</v>
       </c>
       <c r="C288" t="s">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="D288" t="s">
         <v>231</v>
@@ -6257,7 +6307,7 @@
         <v>51</v>
       </c>
       <c r="C289" t="s">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="D289" t="s">
         <v>231</v>
@@ -6291,7 +6341,7 @@
         <v>51</v>
       </c>
       <c r="C291" t="s">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="D291" t="s">
         <v>231</v>
@@ -6308,7 +6358,7 @@
         <v>51</v>
       </c>
       <c r="C292" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D292" t="s">
         <v>231</v>
@@ -6319,13 +6369,13 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="B293" t="s">
         <v>51</v>
       </c>
       <c r="C293" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D293" t="s">
         <v>231</v>
@@ -6342,7 +6392,7 @@
         <v>51</v>
       </c>
       <c r="C294" t="s">
-        <v>246</v>
+        <v>118</v>
       </c>
       <c r="D294" t="s">
         <v>231</v>
@@ -6353,19 +6403,19 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>302</v>
+        <v>193</v>
       </c>
       <c r="B295" t="s">
         <v>51</v>
       </c>
       <c r="C295" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="D295" t="s">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c r="E295" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6376,7 +6426,7 @@
         <v>51</v>
       </c>
       <c r="C296" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="D296" t="s">
         <v>231</v>
@@ -6393,13 +6443,13 @@
         <v>51</v>
       </c>
       <c r="C297" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D297" t="s">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="E297" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6407,16 +6457,16 @@
         <v>193</v>
       </c>
       <c r="B298" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C298" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D298" t="s">
-        <v>231</v>
+        <v>5</v>
       </c>
       <c r="E298" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6424,16 +6474,16 @@
         <v>193</v>
       </c>
       <c r="B299" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C299" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="D299" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E299" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6444,13 +6494,13 @@
         <v>136</v>
       </c>
       <c r="C300" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D300" t="s">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="E300" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6461,13 +6511,13 @@
         <v>136</v>
       </c>
       <c r="C301" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="D301" t="s">
-        <v>251</v>
+        <v>5</v>
       </c>
       <c r="E301" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6478,13 +6528,13 @@
         <v>136</v>
       </c>
       <c r="C302" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D302" t="s">
-        <v>251</v>
+        <v>5</v>
       </c>
       <c r="E302" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6495,7 +6545,7 @@
         <v>136</v>
       </c>
       <c r="C303" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D303" t="s">
         <v>5</v>
@@ -6512,7 +6562,7 @@
         <v>136</v>
       </c>
       <c r="C304" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D304" t="s">
         <v>5</v>
@@ -6529,7 +6579,7 @@
         <v>136</v>
       </c>
       <c r="C305" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D305" t="s">
         <v>5</v>
@@ -6546,7 +6596,7 @@
         <v>136</v>
       </c>
       <c r="C306" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D306" t="s">
         <v>5</v>
@@ -6563,7 +6613,7 @@
         <v>136</v>
       </c>
       <c r="C307" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D307" t="s">
         <v>5</v>
@@ -6580,7 +6630,7 @@
         <v>136</v>
       </c>
       <c r="C308" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D308" t="s">
         <v>5</v>
@@ -6597,7 +6647,7 @@
         <v>136</v>
       </c>
       <c r="C309" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D309" t="s">
         <v>5</v>
@@ -6614,7 +6664,7 @@
         <v>136</v>
       </c>
       <c r="C310" t="s">
-        <v>261</v>
+        <v>139</v>
       </c>
       <c r="D310" t="s">
         <v>5</v>
@@ -6631,7 +6681,7 @@
         <v>136</v>
       </c>
       <c r="C311" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D311" t="s">
         <v>5</v>
@@ -6648,7 +6698,7 @@
         <v>136</v>
       </c>
       <c r="C312" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="D312" t="s">
         <v>5</v>
@@ -6665,7 +6715,7 @@
         <v>136</v>
       </c>
       <c r="C313" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D313" t="s">
         <v>5</v>
@@ -6682,7 +6732,7 @@
         <v>136</v>
       </c>
       <c r="C314" t="s">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="D314" t="s">
         <v>5</v>
@@ -6699,7 +6749,7 @@
         <v>136</v>
       </c>
       <c r="C315" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D315" t="s">
         <v>5</v>
@@ -6716,7 +6766,7 @@
         <v>136</v>
       </c>
       <c r="C316" t="s">
-        <v>143</v>
+        <v>267</v>
       </c>
       <c r="D316" t="s">
         <v>5</v>
@@ -6733,7 +6783,7 @@
         <v>136</v>
       </c>
       <c r="C317" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D317" t="s">
         <v>5</v>
@@ -6750,7 +6800,7 @@
         <v>136</v>
       </c>
       <c r="C318" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D318" t="s">
         <v>5</v>
@@ -6767,7 +6817,7 @@
         <v>136</v>
       </c>
       <c r="C319" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="D319" t="s">
         <v>5</v>
@@ -6784,7 +6834,7 @@
         <v>136</v>
       </c>
       <c r="C320" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D320" t="s">
         <v>5</v>
@@ -6801,7 +6851,7 @@
         <v>136</v>
       </c>
       <c r="C321" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D321" t="s">
         <v>5</v>
@@ -6818,7 +6868,7 @@
         <v>136</v>
       </c>
       <c r="C322" t="s">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="D322" t="s">
         <v>5</v>
@@ -6835,7 +6885,7 @@
         <v>136</v>
       </c>
       <c r="C323" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="D323" t="s">
         <v>5</v>
@@ -6852,7 +6902,7 @@
         <v>136</v>
       </c>
       <c r="C324" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="D324" t="s">
         <v>5</v>
@@ -6869,7 +6919,7 @@
         <v>136</v>
       </c>
       <c r="C325" t="s">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="D325" t="s">
         <v>5</v>
@@ -6920,7 +6970,7 @@
         <v>136</v>
       </c>
       <c r="C328" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D328" t="s">
         <v>5</v>
@@ -6937,7 +6987,7 @@
         <v>136</v>
       </c>
       <c r="C329" t="s">
-        <v>275</v>
+        <v>152</v>
       </c>
       <c r="D329" t="s">
         <v>5</v>
@@ -6971,7 +7021,7 @@
         <v>136</v>
       </c>
       <c r="C331" t="s">
-        <v>152</v>
+        <v>276</v>
       </c>
       <c r="D331" t="s">
         <v>5</v>
@@ -7005,7 +7055,7 @@
         <v>136</v>
       </c>
       <c r="C333" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D333" t="s">
         <v>5</v>
@@ -7039,7 +7089,7 @@
         <v>136</v>
       </c>
       <c r="C335" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="D335" t="s">
         <v>5</v>
@@ -7056,7 +7106,7 @@
         <v>136</v>
       </c>
       <c r="C336" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="D336" t="s">
         <v>5</v>
@@ -7073,7 +7123,7 @@
         <v>136</v>
       </c>
       <c r="C337" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="D337" t="s">
         <v>5</v>
@@ -7090,7 +7140,7 @@
         <v>136</v>
       </c>
       <c r="C338" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="D338" t="s">
         <v>5</v>
@@ -7107,7 +7157,7 @@
         <v>136</v>
       </c>
       <c r="C339" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="D339" t="s">
         <v>5</v>
@@ -7124,7 +7174,7 @@
         <v>136</v>
       </c>
       <c r="C340" t="s">
-        <v>281</v>
+        <v>19</v>
       </c>
       <c r="D340" t="s">
         <v>5</v>
@@ -7141,7 +7191,7 @@
         <v>136</v>
       </c>
       <c r="C341" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="D341" t="s">
         <v>5</v>
@@ -7158,7 +7208,7 @@
         <v>136</v>
       </c>
       <c r="C342" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="D342" t="s">
         <v>5</v>
@@ -7175,7 +7225,7 @@
         <v>136</v>
       </c>
       <c r="C343" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="D343" t="s">
         <v>5</v>
@@ -7192,7 +7242,7 @@
         <v>136</v>
       </c>
       <c r="C344" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D344" t="s">
         <v>5</v>
@@ -7209,7 +7259,7 @@
         <v>136</v>
       </c>
       <c r="C345" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="D345" t="s">
         <v>5</v>
@@ -7226,7 +7276,7 @@
         <v>136</v>
       </c>
       <c r="C346" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="D346" t="s">
         <v>5</v>
@@ -7243,13 +7293,13 @@
         <v>136</v>
       </c>
       <c r="C347" t="s">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="D347" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E347" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7260,13 +7310,13 @@
         <v>136</v>
       </c>
       <c r="C348" t="s">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c r="D348" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E348" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7277,13 +7327,13 @@
         <v>136</v>
       </c>
       <c r="C349" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="D349" t="s">
         <v>48</v>
       </c>
       <c r="E349" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7294,13 +7344,13 @@
         <v>136</v>
       </c>
       <c r="C350" t="s">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c r="D350" t="s">
         <v>48</v>
       </c>
       <c r="E350" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7311,13 +7361,13 @@
         <v>136</v>
       </c>
       <c r="C351" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="D351" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E351" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7328,13 +7378,13 @@
         <v>136</v>
       </c>
       <c r="C352" t="s">
-        <v>184</v>
+        <v>285</v>
       </c>
       <c r="D352" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E352" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7345,13 +7395,13 @@
         <v>136</v>
       </c>
       <c r="C353" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
       <c r="D353" t="s">
         <v>30</v>
       </c>
       <c r="E353" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7362,13 +7412,13 @@
         <v>136</v>
       </c>
       <c r="C354" t="s">
-        <v>286</v>
+        <v>33</v>
       </c>
       <c r="D354" t="s">
         <v>30</v>
       </c>
       <c r="E354" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7379,13 +7429,13 @@
         <v>136</v>
       </c>
       <c r="C355" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="D355" t="s">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="E355" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7396,13 +7446,13 @@
         <v>136</v>
       </c>
       <c r="C356" t="s">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="D356" t="s">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="E356" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7413,7 +7463,7 @@
         <v>136</v>
       </c>
       <c r="C357" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D357" t="s">
         <v>251</v>
@@ -7430,7 +7480,7 @@
         <v>136</v>
       </c>
       <c r="C358" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D358" t="s">
         <v>251</v>
@@ -7447,7 +7497,7 @@
         <v>136</v>
       </c>
       <c r="C359" t="s">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="D359" t="s">
         <v>251</v>
@@ -7464,7 +7514,7 @@
         <v>136</v>
       </c>
       <c r="C360" t="s">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="D360" t="s">
         <v>251</v>
@@ -7481,7 +7531,7 @@
         <v>136</v>
       </c>
       <c r="C361" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="D361" t="s">
         <v>251</v>
@@ -7498,7 +7548,7 @@
         <v>136</v>
       </c>
       <c r="C362" t="s">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="D362" t="s">
         <v>251</v>
@@ -7515,7 +7565,7 @@
         <v>136</v>
       </c>
       <c r="C363" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="D363" t="s">
         <v>251</v>
@@ -7532,13 +7582,13 @@
         <v>136</v>
       </c>
       <c r="C364" t="s">
-        <v>292</v>
+        <v>102</v>
       </c>
       <c r="D364" t="s">
-        <v>251</v>
+        <v>5</v>
       </c>
       <c r="E364" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7549,13 +7599,13 @@
         <v>136</v>
       </c>
       <c r="C365" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="D365" t="s">
-        <v>251</v>
+        <v>5</v>
       </c>
       <c r="E365" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7566,7 +7616,7 @@
         <v>136</v>
       </c>
       <c r="C366" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D366" t="s">
         <v>5</v>
@@ -7583,13 +7633,13 @@
         <v>136</v>
       </c>
       <c r="C367" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="D367" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E367" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7600,13 +7650,13 @@
         <v>136</v>
       </c>
       <c r="C368" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="D368" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E368" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7617,89 +7667,55 @@
         <v>136</v>
       </c>
       <c r="C369" t="s">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="D369" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E369" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
       <c r="B370" t="s">
-        <v>136</v>
+        <v>302</v>
       </c>
       <c r="C370" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="D370" t="s">
         <v>48</v>
       </c>
       <c r="E370" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="371" spans="1:5">
-      <c r="A371" t="s">
-        <v>193</v>
-      </c>
-      <c r="B371" t="s">
-        <v>136</v>
-      </c>
-      <c r="C371" t="s">
-        <v>293</v>
-      </c>
-      <c r="D371" t="s">
-        <v>48</v>
-      </c>
-      <c r="E371" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
-      <c r="A372" t="s">
-        <v>303</v>
-      </c>
-      <c r="B372" t="s">
+      <c r="A371" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D371" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C372" t="s">
-        <v>294</v>
-      </c>
-      <c r="D372" t="s">
-        <v>48</v>
-      </c>
-      <c r="E372" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="A373" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D373" s="2" t="s">
+      <c r="E371" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E373" s="2" t="s">
-        <v>312</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E372" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:E372">
-      <sortCondition ref="A3:A372"/>
-      <sortCondition ref="B3:B372"/>
-      <sortCondition ref="C3:C372"/>
+  <autoFilter ref="A1:E370" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:E370">
+      <sortCondition ref="A3:A370"/>
+      <sortCondition ref="B3:B370"/>
+      <sortCondition ref="C3:C370"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7710,35 +7726,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA542F2-118D-4E7D-A024-BF8AC11773B4}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="87.25" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="111.25" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>314</v>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
